--- a/pp_gas_enrichments/newMount_dry_highPP_500ppmCH4.xlsx
+++ b/pp_gas_enrichments/newMount_dry_highPP_500ppmCH4.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CH4" sheetId="2" r:id="rId1"/>
+    <sheet name="CO2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,12 +20,95 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="19">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>NM3-10_A</t>
+  </si>
+  <si>
+    <t>NM3-10_B</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>ppm</t>
+  </si>
+  <si>
+    <t>NM3-10_Control</t>
+  </si>
+  <si>
+    <t>Autoclaved_Control</t>
+  </si>
+  <si>
+    <t>NM2-2_Control</t>
+  </si>
+  <si>
+    <t>NM2-2_A</t>
+  </si>
+  <si>
+    <t>NM2-2_B</t>
+  </si>
+  <si>
+    <t>NM2-11_A</t>
+  </si>
+  <si>
+    <t>NM2-11_B</t>
+  </si>
+  <si>
+    <t>NM2-11_Control</t>
+  </si>
+  <si>
+    <t>NM-19_A</t>
+  </si>
+  <si>
+    <t>NM1-19_B</t>
+  </si>
+  <si>
+    <t>NM1-19_Control</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>AbioticControl(500 ppm CH4)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -49,8 +134,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +425,740 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C2:AF10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="E2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD2" s="6"/>
+      <c r="AE2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="3:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="5" spans="3:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="N5" s="5">
+        <v>475</v>
+      </c>
+      <c r="P5" s="5">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="6" spans="3:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="5">
+        <v>7</v>
+      </c>
+      <c r="N6" s="5">
+        <v>417</v>
+      </c>
+      <c r="P6" s="5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="3:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="5">
+        <v>10</v>
+      </c>
+      <c r="N7" s="5">
+        <v>356</v>
+      </c>
+      <c r="P7" s="5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="3:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
+        <v>42958</v>
+      </c>
+      <c r="D8" s="4">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4">
+        <v>151.19999999999999</v>
+      </c>
+      <c r="F8" s="4">
+        <v>392.5</v>
+      </c>
+      <c r="G8" s="4">
+        <v>156.1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>405.48</v>
+      </c>
+      <c r="M8" s="4">
+        <v>49.25</v>
+      </c>
+      <c r="N8" s="4">
+        <v>124.8</v>
+      </c>
+      <c r="O8" s="4">
+        <v>67.2</v>
+      </c>
+      <c r="P8" s="4">
+        <v>171.99</v>
+      </c>
+      <c r="S8" s="4">
+        <v>159.91999999999999</v>
+      </c>
+      <c r="T8" s="4">
+        <v>415.3</v>
+      </c>
+      <c r="U8" s="4">
+        <v>157.80000000000001</v>
+      </c>
+      <c r="V8" s="4">
+        <v>409.75</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>148.44</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>385.16</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>146.66999999999999</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>380.51</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" spans="3:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="3">
+        <v>42965</v>
+      </c>
+      <c r="D9" s="4">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4">
+        <v>145.24</v>
+      </c>
+      <c r="F9" s="7">
+        <v>376.1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>146.94</v>
+      </c>
+      <c r="H9" s="4">
+        <v>380.5</v>
+      </c>
+      <c r="M9" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="N9" s="4">
+        <v>23.12</v>
+      </c>
+      <c r="O9" s="4">
+        <v>28.33</v>
+      </c>
+      <c r="P9" s="4">
+        <v>71.05</v>
+      </c>
+      <c r="S9" s="4">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="T9" s="4">
+        <v>388.18</v>
+      </c>
+      <c r="U9" s="4">
+        <v>153.58000000000001</v>
+      </c>
+      <c r="V9" s="4">
+        <v>397.87</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>138.91999999999999</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>359.61</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>137.77000000000001</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>356.61</v>
+      </c>
+    </row>
+    <row r="10" spans="3:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <v>42968</v>
+      </c>
+      <c r="M10" s="1">
+        <v>4.05</v>
+      </c>
+      <c r="N10" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="O10" s="1">
+        <v>15.35</v>
+      </c>
+      <c r="P10" s="1">
+        <v>39.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:AD9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="E2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD2" s="6"/>
+    </row>
+    <row r="3" spans="3:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="3:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="3:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="3">
+        <v>42958</v>
+      </c>
+      <c r="D7" s="4">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4">
+        <v>46.3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>48.9</v>
+      </c>
+      <c r="H7" s="4">
+        <v>9.4700000000000006E-2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>50.2</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="K7" s="4">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="M7" s="4">
+        <v>136.1</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="O7" s="4">
+        <v>172.48</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.33339999999999997</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>149.6</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="S7" s="4">
+        <v>41.3</v>
+      </c>
+      <c r="T7" s="4">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="U7" s="4">
+        <v>45.4</v>
+      </c>
+      <c r="V7" s="4">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="W7" s="4">
+        <v>45.56</v>
+      </c>
+      <c r="X7" s="4">
+        <v>8.8099999999999998E-2</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>52.2</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>0.1011</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>51.13</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>50.9</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>9.8500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
+        <v>42965</v>
+      </c>
+      <c r="D8" s="4">
+        <v>28</v>
+      </c>
+      <c r="E8" s="4">
+        <v>60</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="G8" s="4">
+        <v>61.9</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.113</v>
+      </c>
+      <c r="I8" s="4">
+        <v>57.19</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.10489999999999999</v>
+      </c>
+      <c r="K8" s="4">
+        <v>69.61</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.12759999999999999</v>
+      </c>
+      <c r="M8" s="4">
+        <v>188.19</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="O8" s="4">
+        <v>224.9</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>197.99</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="S8" s="4">
+        <v>56.1</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="U8" s="4">
+        <v>54.6</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="W8" s="4">
+        <v>51.17</v>
+      </c>
+      <c r="X8" s="4">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>59.66</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>0.109</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>64</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>61.19</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="9" spans="3:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <v>42968</v>
+      </c>
+      <c r="M9" s="1">
+        <v>196.5</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.35820000000000002</v>
+      </c>
+      <c r="O9" s="1">
+        <v>242.6</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.442</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>220.38</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0.40160000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/pp_gas_enrichments/newMount_dry_highPP_500ppmCH4.xlsx
+++ b/pp_gas_enrichments/newMount_dry_highPP_500ppmCH4.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CH4" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,74 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+refilled NM2-2 A/B samples with 1 ml "pure" CH4</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+refilled NM2-2 A/B samples with 1 ml "pure" CH4</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="19">
   <si>
@@ -83,8 +151,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +181,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -134,17 +215,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,11 +507,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:AF10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C2:AF14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,58 +520,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6" t="s">
+      <c r="L2" s="9"/>
+      <c r="M2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6" t="s">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6" t="s">
+      <c r="R2" s="9"/>
+      <c r="S2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6" t="s">
+      <c r="T2" s="9"/>
+      <c r="U2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6" t="s">
+      <c r="V2" s="9"/>
+      <c r="W2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6" t="s">
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6" t="s">
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6" t="s">
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="6"/>
+      <c r="AD2" s="9"/>
       <c r="AE2" t="s">
         <v>18</v>
       </c>
@@ -585,45 +668,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="5">
+    <row r="4" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C4" s="7">
+        <v>42937</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="P4" s="5">
-        <v>508</v>
-      </c>
     </row>
     <row r="5" spans="3:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="8">
+        <v>42940</v>
+      </c>
       <c r="D5" s="5">
         <v>4</v>
       </c>
-      <c r="N5" s="5">
-        <v>475</v>
-      </c>
-      <c r="P5" s="5">
-        <v>484</v>
-      </c>
     </row>
     <row r="6" spans="3:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="8">
+        <v>42944</v>
+      </c>
       <c r="D6" s="5">
+        <f>C6-C4</f>
         <v>7</v>
       </c>
-      <c r="N6" s="5">
-        <v>417</v>
-      </c>
-      <c r="P6" s="5">
-        <v>380</v>
-      </c>
     </row>
     <row r="7" spans="3:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="8">
+        <v>42948</v>
+      </c>
       <c r="D7" s="5">
-        <v>10</v>
+        <f>C7-C4</f>
+        <v>11</v>
+      </c>
+      <c r="E7" s="5">
+        <v>184.26</v>
+      </c>
+      <c r="F7" s="5">
+        <v>468.72</v>
+      </c>
+      <c r="G7" s="5">
+        <v>190</v>
+      </c>
+      <c r="H7" s="5">
+        <v>483</v>
+      </c>
+      <c r="M7" s="5">
+        <v>135</v>
       </c>
       <c r="N7" s="5">
-        <v>356</v>
-      </c>
-      <c r="P7" s="5">
-        <v>343</v>
+        <v>343.5</v>
+      </c>
+      <c r="S7" s="5">
+        <v>175.86</v>
+      </c>
+      <c r="T7" s="5">
+        <v>447.28</v>
+      </c>
+      <c r="U7" s="5">
+        <v>195.27</v>
+      </c>
+      <c r="V7" s="5">
+        <v>496.86</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>196.62</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>500</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>150</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>381.54</v>
       </c>
     </row>
     <row r="8" spans="3:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -695,7 +813,7 @@
       <c r="E9" s="4">
         <v>145.24</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>376.1</v>
       </c>
       <c r="G9" s="4">
@@ -741,31 +859,212 @@
         <v>356.61</v>
       </c>
     </row>
-    <row r="10" spans="3:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="2">
+    <row r="10" spans="3:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
         <v>42968</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="4">
         <v>4.05</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="4">
         <v>10.4</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="4">
         <v>15.35</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="4">
         <v>39.29</v>
+      </c>
+    </row>
+    <row r="11" spans="3:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="3">
+        <v>42972</v>
+      </c>
+      <c r="D11" s="4">
+        <f>28+7</f>
+        <v>35</v>
+      </c>
+      <c r="E11" s="4">
+        <v>140.33000000000001</v>
+      </c>
+      <c r="F11" s="4">
+        <v>364.75</v>
+      </c>
+      <c r="G11" s="4">
+        <v>141.08000000000001</v>
+      </c>
+      <c r="H11" s="4">
+        <v>366.7</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0.27689999999999998</v>
+      </c>
+      <c r="O11" s="4">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="P11" s="4">
+        <v>11.61</v>
+      </c>
+      <c r="S11" s="4">
+        <v>147.9</v>
+      </c>
+      <c r="T11" s="4">
+        <v>384.43549999999999</v>
+      </c>
+      <c r="U11" s="4">
+        <v>152</v>
+      </c>
+      <c r="V11" s="4">
+        <v>395.09</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>133.29</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>346.44900000000001</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>135.15</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>351.3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C12" s="7">
+        <v>42972</v>
+      </c>
+      <c r="D12" s="4">
+        <v>35</v>
+      </c>
+      <c r="M12" s="4">
+        <v>279.2</v>
+      </c>
+      <c r="N12" s="4">
+        <v>725.77</v>
+      </c>
+      <c r="O12" s="4">
+        <v>304.08</v>
+      </c>
+      <c r="P12" s="4">
+        <v>790.43</v>
+      </c>
+    </row>
+    <row r="13" spans="3:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="3">
+        <v>42975</v>
+      </c>
+      <c r="E13" s="4">
+        <v>139.09</v>
+      </c>
+      <c r="F13" s="4">
+        <v>362.44</v>
+      </c>
+      <c r="G13" s="4">
+        <v>138.1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>359.86</v>
+      </c>
+      <c r="M13" s="4">
+        <v>248.2</v>
+      </c>
+      <c r="N13" s="4">
+        <v>647.23</v>
+      </c>
+      <c r="O13" s="4">
+        <v>281.45999999999998</v>
+      </c>
+      <c r="P13" s="4">
+        <v>734</v>
+      </c>
+      <c r="S13" s="4">
+        <v>150.87</v>
+      </c>
+      <c r="T13" s="4">
+        <v>393.19</v>
+      </c>
+      <c r="U13" s="4">
+        <v>146.9</v>
+      </c>
+      <c r="V13" s="4">
+        <v>382.81</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>129.9</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>338.63</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>126.29</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>329.02</v>
+      </c>
+    </row>
+    <row r="14" spans="3:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <v>42979</v>
+      </c>
+      <c r="D14" s="1">
+        <f>C14-C4</f>
+        <v>42</v>
+      </c>
+      <c r="E14" s="1">
+        <v>133.24</v>
+      </c>
+      <c r="F14" s="1">
+        <v>347.81</v>
+      </c>
+      <c r="G14" s="1">
+        <v>132.84</v>
+      </c>
+      <c r="H14" s="1">
+        <v>346.75</v>
+      </c>
+      <c r="M14" s="1">
+        <v>217.02500000000001</v>
+      </c>
+      <c r="N14" s="1">
+        <v>567.27</v>
+      </c>
+      <c r="O14" s="1">
+        <v>250.67</v>
+      </c>
+      <c r="P14" s="1">
+        <v>655.4</v>
+      </c>
+      <c r="S14" s="1">
+        <v>145.31</v>
+      </c>
+      <c r="T14" s="1">
+        <v>379.42</v>
+      </c>
+      <c r="U14" s="1">
+        <v>146.91999999999999</v>
+      </c>
+      <c r="V14" s="1">
+        <v>383.64</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>125.05</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>326.33999999999997</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>122.79</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>320.44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
@@ -773,18 +1072,25 @@
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:AD9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="C2:AD12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,58 +1099,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6" t="s">
+      <c r="L2" s="9"/>
+      <c r="M2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6" t="s">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6" t="s">
+      <c r="R2" s="9"/>
+      <c r="S2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6" t="s">
+      <c r="T2" s="9"/>
+      <c r="U2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6" t="s">
+      <c r="V2" s="9"/>
+      <c r="W2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6" t="s">
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6" t="s">
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6" t="s">
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="6"/>
+      <c r="AD2" s="9"/>
     </row>
     <row r="3" spans="3:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
@@ -857,19 +1163,19 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>4</v>
@@ -932,19 +1238,92 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="3:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-    </row>
     <row r="5" spans="3:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="3:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="8">
+        <v>42948</v>
+      </c>
       <c r="D6" s="5">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E6" s="5">
+        <v>50.28</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.1123</v>
+      </c>
+      <c r="G6" s="5">
+        <v>58.74</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="I6" s="5">
+        <v>39</v>
+      </c>
+      <c r="J6" s="5">
+        <v>9.8500000000000004E-2</v>
+      </c>
+      <c r="K6" s="5">
+        <v>55.96</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="M6" s="5">
+        <v>92.42</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="O6" s="5">
+        <v>90.38</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0.2019</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>99.715699999999998</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0.2228</v>
+      </c>
+      <c r="S6" s="5">
+        <v>40.99</v>
+      </c>
+      <c r="T6" s="5">
+        <v>9.1600000000000001E-2</v>
+      </c>
+      <c r="U6" s="5">
+        <v>43.17</v>
+      </c>
+      <c r="V6" s="5">
+        <v>9.64E-2</v>
+      </c>
+      <c r="W6" s="5">
+        <v>43.319200000000002</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>47</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0.10589999999999999</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>39</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>47.63</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>0.10639999999999999</v>
       </c>
     </row>
     <row r="7" spans="3:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1119,31 +1498,216 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="9" spans="3:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="2">
+    <row r="9" spans="3:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="3">
         <v>42968</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="4">
         <v>196.5</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="4">
         <v>0.35820000000000002</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="4">
         <v>242.6</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="4">
         <v>0.442</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="4">
         <v>220.38</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="4">
         <v>0.40160000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="3:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <v>42972</v>
+      </c>
+      <c r="G10" s="4">
+        <v>26.57</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.1017</v>
+      </c>
+      <c r="I10" s="4">
+        <v>25.42</v>
+      </c>
+      <c r="J10" s="4">
+        <v>9.7299999999999998E-2</v>
+      </c>
+      <c r="K10" s="4">
+        <v>29.27</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.112</v>
+      </c>
+      <c r="M10" s="4">
+        <v>92.56</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.3543</v>
+      </c>
+      <c r="O10" s="4">
+        <v>114.95</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>101.14</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0.3871</v>
+      </c>
+      <c r="S10" s="4">
+        <v>22.18</v>
+      </c>
+      <c r="T10" s="4">
+        <v>8.4900000000000003E-2</v>
+      </c>
+      <c r="U10" s="4">
+        <v>26.58</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0.1018</v>
+      </c>
+      <c r="W10" s="4">
+        <v>21.35</v>
+      </c>
+      <c r="X10" s="4">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>33.479999999999997</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>0.128</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>36.380000000000003</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>0.13919999999999999</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>27.87</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>0.1067</v>
+      </c>
+    </row>
+    <row r="11" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C11" s="7">
+        <v>42972</v>
+      </c>
+      <c r="D11" s="4">
+        <v>35</v>
+      </c>
+      <c r="M11" s="4">
+        <v>96.39</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0.36890000000000001</v>
+      </c>
+      <c r="O11" s="4">
+        <v>111.68859999999999</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0.42749999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="3:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <v>42979</v>
+      </c>
+      <c r="E12" s="1">
+        <v>43.3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.1134</v>
+      </c>
+      <c r="G12" s="1">
+        <v>47.68</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.1172</v>
+      </c>
+      <c r="I12" s="1">
+        <v>47.14</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.1159</v>
+      </c>
+      <c r="K12" s="1">
+        <v>50.39</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.12379999999999999</v>
+      </c>
+      <c r="M12" s="1">
+        <v>176.99</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.43490000000000001</v>
+      </c>
+      <c r="O12" s="1">
+        <v>223.78</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.54990000000000006</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>191</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0.46939999999999998</v>
+      </c>
+      <c r="S12" s="1">
+        <v>40.08</v>
+      </c>
+      <c r="T12" s="1">
+        <v>9.8500000000000004E-2</v>
+      </c>
+      <c r="U12" s="1">
+        <v>48.32</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0.1188</v>
+      </c>
+      <c r="W12" s="1">
+        <v>40.69</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>51.23</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>0.12590000000000001</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>50.36</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0.12379999999999999</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>48.16</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0.1183</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AD2"/>
@@ -1152,13 +1716,9 @@
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/pp_gas_enrichments/newMount_dry_highPP_500ppmCH4.xlsx
+++ b/pp_gas_enrichments/newMount_dry_highPP_500ppmCH4.xlsx
@@ -50,6 +50,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{AFA8699A-2418-4C13-B410-64226D4D2D73}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+calibration 0.5ch4=1898.6</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -89,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -146,6 +170,9 @@
   </si>
   <si>
     <t>AbioticControl(500 ppm CH4)</t>
+  </si>
+  <si>
+    <t>ppm CH4</t>
   </si>
 </sst>
 </file>
@@ -215,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -225,6 +252,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -508,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:AF14"/>
+  <dimension ref="A2:AF16"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,64 +550,70 @@
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="E2" s="9" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9" t="s">
+      <c r="J2" s="13"/>
+      <c r="K2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9" t="s">
+      <c r="L2" s="13"/>
+      <c r="M2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9" t="s">
+      <c r="N2" s="13"/>
+      <c r="O2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9" t="s">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9" t="s">
+      <c r="R2" s="13"/>
+      <c r="S2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9" t="s">
+      <c r="T2" s="13"/>
+      <c r="U2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9" t="s">
+      <c r="V2" s="13"/>
+      <c r="W2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9" t="s">
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9" t="s">
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9" t="s">
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="9"/>
+      <c r="AD2" s="13"/>
       <c r="AE2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="3:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,7 +705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C4" s="7">
         <v>42937</v>
       </c>
@@ -676,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5" s="8">
         <v>42940</v>
       </c>
@@ -684,7 +721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="8">
         <v>42944</v>
       </c>
@@ -693,7 +730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="8">
         <v>42948</v>
       </c>
@@ -744,7 +781,7 @@
         <v>381.54</v>
       </c>
     </row>
-    <row r="8" spans="3:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3">
         <v>42958</v>
       </c>
@@ -803,7 +840,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="9" spans="3:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="3">
         <v>42965</v>
       </c>
@@ -859,7 +896,7 @@
         <v>356.61</v>
       </c>
     </row>
-    <row r="10" spans="3:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C10" s="3">
         <v>42968</v>
       </c>
@@ -876,7 +913,7 @@
         <v>39.29</v>
       </c>
     </row>
-    <row r="11" spans="3:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C11" s="3">
         <v>42972</v>
       </c>
@@ -933,7 +970,7 @@
         <v>351.3</v>
       </c>
     </row>
-    <row r="12" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C12" s="7">
         <v>42972</v>
       </c>
@@ -953,7 +990,7 @@
         <v>790.43</v>
       </c>
     </row>
-    <row r="13" spans="3:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C13" s="3">
         <v>42975</v>
       </c>
@@ -1006,61 +1043,199 @@
         <v>329.02</v>
       </c>
     </row>
-    <row r="14" spans="3:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="2">
+    <row r="14" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="3">
         <v>42979</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <f>C14-C4</f>
         <v>42</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>133.24</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>347.81</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="4">
         <v>132.84</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="4">
         <v>346.75</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="4">
         <v>217.02500000000001</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="4">
         <v>567.27</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="4">
         <v>250.67</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="4">
         <v>655.4</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="4">
         <v>145.31</v>
       </c>
-      <c r="T14" s="1">
+      <c r="T14" s="4">
         <v>379.42</v>
       </c>
-      <c r="U14" s="1">
+      <c r="U14" s="4">
         <v>146.91999999999999</v>
       </c>
-      <c r="V14" s="1">
+      <c r="V14" s="4">
         <v>383.64</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Y14" s="4">
         <v>125.05</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="Z14" s="4">
         <v>326.33999999999997</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AA14" s="4">
         <v>122.79</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AB14" s="4">
         <v>320.44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="3">
+        <v>42986</v>
+      </c>
+      <c r="D15" s="4">
+        <f>C15-C4</f>
+        <v>49</v>
+      </c>
+      <c r="E15" s="4">
+        <v>129.5591</v>
+      </c>
+      <c r="F15" s="4">
+        <v>336.75</v>
+      </c>
+      <c r="G15" s="4">
+        <v>128.779</v>
+      </c>
+      <c r="H15" s="4">
+        <v>334.72</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1.1596</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1.5132000000000001</v>
+      </c>
+      <c r="M15" s="4">
+        <v>165</v>
+      </c>
+      <c r="N15" s="4">
+        <v>429.30900000000003</v>
+      </c>
+      <c r="O15" s="4">
+        <v>202.32</v>
+      </c>
+      <c r="P15" s="4">
+        <v>526.73</v>
+      </c>
+      <c r="S15" s="4">
+        <v>146</v>
+      </c>
+      <c r="T15" s="4">
+        <v>379.69</v>
+      </c>
+      <c r="U15" s="4">
+        <v>145.1</v>
+      </c>
+      <c r="V15" s="4">
+        <v>377.33499999999998</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>119.8</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>311.95</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>116.79</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>303.44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1923.85</v>
+      </c>
+      <c r="C16" s="2">
+        <v>43000</v>
+      </c>
+      <c r="D16" s="1">
+        <f>C16-$C$4</f>
+        <v>63</v>
+      </c>
+      <c r="E16" s="1">
+        <v>117.47</v>
+      </c>
+      <c r="F16" s="1">
+        <v>304.02999999999997</v>
+      </c>
+      <c r="G16" s="1">
+        <v>114.79</v>
+      </c>
+      <c r="H16" s="1">
+        <v>297.06</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.249</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1.819</v>
+      </c>
+      <c r="M16" s="1">
+        <v>60.19</v>
+      </c>
+      <c r="N16" s="1">
+        <v>155.13</v>
+      </c>
+      <c r="O16" s="1">
+        <v>110.45</v>
+      </c>
+      <c r="P16" s="1">
+        <v>285.779</v>
+      </c>
+      <c r="S16" s="1">
+        <v>138.84</v>
+      </c>
+      <c r="T16" s="1">
+        <v>359.59</v>
+      </c>
+      <c r="U16" s="1">
+        <v>138.84139999999999</v>
+      </c>
+      <c r="V16" s="1">
+        <v>359.57</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>107.34</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>277.69</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>105.99</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>274.18</v>
       </c>
     </row>
   </sheetData>
@@ -1087,76 +1262,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C2:AD12"/>
+  <dimension ref="C2:AD14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9" t="s">
+      <c r="J2" s="13"/>
+      <c r="K2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9" t="s">
+      <c r="L2" s="13"/>
+      <c r="M2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9" t="s">
+      <c r="N2" s="13"/>
+      <c r="O2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9" t="s">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9" t="s">
+      <c r="R2" s="13"/>
+      <c r="S2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9" t="s">
+      <c r="T2" s="13"/>
+      <c r="U2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9" t="s">
+      <c r="V2" s="13"/>
+      <c r="W2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9" t="s">
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9" t="s">
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9" t="s">
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="9"/>
+      <c r="AD2" s="13"/>
     </row>
     <row r="3" spans="3:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1238,8 +1414,13 @@
         <v>17</v>
       </c>
     </row>
+    <row r="4" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C4" s="7">
+        <v>42937</v>
+      </c>
+    </row>
     <row r="5" spans="3:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="5">
+      <c r="D5" s="11">
         <v>4</v>
       </c>
     </row>
@@ -1247,7 +1428,7 @@
       <c r="C6" s="8">
         <v>42948</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="11">
         <v>10</v>
       </c>
       <c r="E6" s="5">
@@ -1330,7 +1511,7 @@
       <c r="C7" s="3">
         <v>42958</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="12">
         <v>21</v>
       </c>
       <c r="E7" s="4">
@@ -1416,7 +1597,7 @@
       <c r="C8" s="3">
         <v>42965</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="12">
         <v>28</v>
       </c>
       <c r="E8" s="4">
@@ -1502,6 +1683,7 @@
       <c r="C9" s="3">
         <v>42968</v>
       </c>
+      <c r="D9" s="12"/>
       <c r="M9" s="4">
         <v>196.5</v>
       </c>
@@ -1525,6 +1707,7 @@
       <c r="C10" s="3">
         <v>42972</v>
       </c>
+      <c r="D10" s="12"/>
       <c r="G10" s="4">
         <v>26.57</v>
       </c>
@@ -1602,7 +1785,7 @@
       <c r="C11" s="7">
         <v>42972</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="12">
         <v>35</v>
       </c>
       <c r="M11" s="4">
@@ -1618,87 +1801,262 @@
         <v>0.42749999999999999</v>
       </c>
     </row>
-    <row r="12" spans="3:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="2">
+    <row r="12" spans="3:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="3">
         <v>42979</v>
       </c>
-      <c r="E12" s="1">
+      <c r="D12" s="12"/>
+      <c r="E12" s="4">
         <v>43.3</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>0.1134</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="4">
         <v>47.68</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="4">
         <v>0.1172</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <v>47.14</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>0.1159</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="4">
         <v>50.39</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="4">
         <v>0.12379999999999999</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="4">
         <v>176.99</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="4">
         <v>0.43490000000000001</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="4">
         <v>223.78</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="4">
         <v>0.54990000000000006</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="4">
         <v>191</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="4">
         <v>0.46939999999999998</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="4">
         <v>40.08</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T12" s="4">
         <v>9.8500000000000004E-2</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U12" s="4">
         <v>48.32</v>
       </c>
-      <c r="V12" s="1">
+      <c r="V12" s="4">
         <v>0.1188</v>
       </c>
-      <c r="W12" s="1">
+      <c r="W12" s="4">
         <v>40.69</v>
       </c>
-      <c r="X12" s="1">
+      <c r="X12" s="4">
         <v>0.1</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Y12" s="4">
         <v>51.23</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="Z12" s="4">
         <v>0.12590000000000001</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AA12" s="4">
         <v>50.36</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AB12" s="4">
         <v>0.12379999999999999</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AC12" s="4">
         <v>48.16</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AD12" s="4">
         <v>0.1183</v>
+      </c>
+    </row>
+    <row r="13" spans="3:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="3">
+        <v>42986</v>
+      </c>
+      <c r="D13" s="12">
+        <f>C13-C4</f>
+        <v>49</v>
+      </c>
+      <c r="E13" s="4">
+        <v>56.3</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.1308</v>
+      </c>
+      <c r="G13" s="4">
+        <v>57.8</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.13420000000000001</v>
+      </c>
+      <c r="I13" s="4">
+        <v>55.03</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.1278</v>
+      </c>
+      <c r="K13" s="4">
+        <v>56.17</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.13039999999999999</v>
+      </c>
+      <c r="M13" s="4">
+        <v>212.02</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.49220000000000003</v>
+      </c>
+      <c r="O13" s="4">
+        <v>244.91</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0.56859999999999999</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>217.14</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0.50409999999999999</v>
+      </c>
+      <c r="S13" s="4">
+        <v>41</v>
+      </c>
+      <c r="T13" s="4">
+        <v>9.5200000000000007E-2</v>
+      </c>
+      <c r="U13" s="4">
+        <v>52.27</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0.12139999999999999</v>
+      </c>
+      <c r="W13" s="4">
+        <v>44.08</v>
+      </c>
+      <c r="X13" s="4">
+        <v>0.1023</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>59.18</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>58.5</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>57.07</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>0.13250000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="3:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <v>43000</v>
+      </c>
+      <c r="D14" s="10">
+        <f>C14-C4</f>
+        <v>63</v>
+      </c>
+      <c r="E14" s="1">
+        <v>57.93</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="G14" s="1">
+        <v>63.4</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="I14" s="1">
+        <v>54.75</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="K14" s="1">
+        <v>58.17</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.12709999999999999</v>
+      </c>
+      <c r="M14" s="1">
+        <v>259.39</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O14" s="1">
+        <v>313.5</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>260.92</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="S14" s="1">
+        <v>48.33</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="U14" s="1">
+        <v>57.14</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0.12479999999999999</v>
+      </c>
+      <c r="W14" s="1">
+        <v>49.3</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>65.89</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>68.7</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>61.36</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>0.13400000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/pp_gas_enrichments/newMount_dry_highPP_500ppmCH4.xlsx
+++ b/pp_gas_enrichments/newMount_dry_highPP_500ppmCH4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -179,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +221,28 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -242,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -252,13 +274,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AF16"/>
+  <dimension ref="A2:AF17"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,58 +581,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13" t="s">
+      <c r="L2" s="9"/>
+      <c r="M2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13" t="s">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13" t="s">
+      <c r="R2" s="9"/>
+      <c r="S2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13" t="s">
+      <c r="T2" s="9"/>
+      <c r="U2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13" t="s">
+      <c r="V2" s="9"/>
+      <c r="W2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13" t="s">
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13" t="s">
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13" t="s">
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="13"/>
+      <c r="AD2" s="9"/>
       <c r="AE2" t="s">
         <v>18</v>
       </c>
@@ -1163,83 +1193,152 @@
         <v>303.44</v>
       </c>
     </row>
-    <row r="16" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>5000</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="4">
         <v>1923.85</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>43000</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <f>C16-$C$4</f>
         <v>63</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>117.47</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="4">
         <v>304.02999999999997</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="4">
         <v>114.79</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="4">
         <v>297.06</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="4">
         <v>0</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="4">
         <v>0</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="4">
         <v>0.249</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="4">
         <v>1.819</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="4">
         <v>60.19</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="4">
         <v>155.13</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="4">
         <v>110.45</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="4">
         <v>285.779</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="4">
         <v>138.84</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T16" s="4">
         <v>359.59</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="4">
         <v>138.84139999999999</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V16" s="4">
         <v>359.57</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Y16" s="4">
         <v>107.34</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="Z16" s="4">
         <v>277.69</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AA16" s="4">
         <v>105.99</v>
       </c>
-      <c r="AB16" s="1">
+      <c r="AB16" s="4">
         <v>274.18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1915.21</v>
+      </c>
+      <c r="C17" s="2">
+        <v>43014</v>
+      </c>
+      <c r="D17" s="4">
+        <f>C17-$C$4</f>
+        <v>77</v>
+      </c>
+      <c r="E17" s="1">
+        <v>108.1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>279.49</v>
+      </c>
+      <c r="G17" s="1">
+        <v>127.92</v>
+      </c>
+      <c r="H17" s="1">
+        <v>331.27</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="O17" s="1">
+        <v>29.47</v>
+      </c>
+      <c r="P17" s="1">
+        <v>74.113699999999994</v>
+      </c>
+      <c r="S17" s="1">
+        <v>135.75</v>
+      </c>
+      <c r="T17" s="1">
+        <v>351.73</v>
+      </c>
+      <c r="U17" s="1">
+        <v>160.97999999999999</v>
+      </c>
+      <c r="V17" s="1">
+        <v>417.62</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>97.27</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>251.2</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>103.55</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>267.61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
@@ -1247,12 +1346,6 @@
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1262,810 +1355,873 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C2:AD14"/>
+  <dimension ref="C2:AD15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AF14" sqref="AF14"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="10"/>
+    <col min="3" max="3" width="14.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13" t="s">
+      <c r="N2" s="12"/>
+      <c r="O2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13" t="s">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13" t="s">
+      <c r="R2" s="12"/>
+      <c r="S2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13" t="s">
+      <c r="T2" s="12"/>
+      <c r="U2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13" t="s">
+      <c r="V2" s="12"/>
+      <c r="W2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13" t="s">
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13" t="s">
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13" t="s">
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="13"/>
-    </row>
-    <row r="3" spans="3:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
+      <c r="AD2" s="12"/>
+    </row>
+    <row r="3" spans="3:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="I3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="K3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="M3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="O3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" s="1" t="s">
+      <c r="Q3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="T3" s="1" t="s">
+      <c r="S3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V3" s="1" t="s">
+      <c r="U3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="X3" s="1" t="s">
+      <c r="W3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="X3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Y3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z3" s="1" t="s">
+      <c r="Y3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AA3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AC3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C4" s="7">
+      <c r="C4" s="15">
         <v>42937</v>
       </c>
     </row>
-    <row r="5" spans="3:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="3:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="8">
+    <row r="5" spans="3:30" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:30" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="18">
         <v>42948</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="17">
         <v>10</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="16">
         <v>50.28</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="16">
         <v>0.1123</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="16">
         <v>58.74</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="16">
         <v>0.13</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="16">
         <v>39</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="16">
         <v>9.8500000000000004E-2</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="16">
         <v>55.96</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="16">
         <v>0.125</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="16">
         <v>92.42</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="16">
         <v>0.2</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="16">
         <v>90.38</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="16">
         <v>0.2019</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="16">
         <v>99.715699999999998</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="16">
         <v>0.2228</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="16">
         <v>40.99</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="16">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" s="16">
         <v>43.17</v>
       </c>
-      <c r="V6" s="5">
+      <c r="V6" s="16">
         <v>9.64E-2</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6" s="16">
         <v>43.319200000000002</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="Y6" s="16">
         <v>47</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="Z6" s="16">
         <v>0.10589999999999999</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="AA6" s="16">
         <v>39</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AB6" s="16">
         <v>8.8400000000000006E-2</v>
       </c>
-      <c r="AC6" s="5">
+      <c r="AC6" s="16">
         <v>47.63</v>
       </c>
-      <c r="AD6" s="5">
+      <c r="AD6" s="16">
         <v>0.10639999999999999</v>
       </c>
     </row>
-    <row r="7" spans="3:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="3">
+    <row r="7" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C7" s="15">
         <v>42958</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>21</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="10">
         <v>46.3</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="10">
         <v>8.9499999999999996E-2</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="10">
         <v>48.9</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="10">
         <v>9.4700000000000006E-2</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="10">
         <v>50.2</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="10">
         <v>0.09</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="10">
         <v>64.400000000000006</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="10">
         <v>0.13</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="10">
         <v>136.1</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="10">
         <v>0.26</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="10">
         <v>172.48</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="10">
         <v>0.33339999999999997</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="10">
         <v>149.6</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="10">
         <v>0.28899999999999998</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="10">
         <v>41.3</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="10">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="10">
         <v>45.4</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="10">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W7" s="10">
         <v>45.56</v>
       </c>
-      <c r="X7" s="4">
+      <c r="X7" s="10">
         <v>8.8099999999999998E-2</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Y7" s="10">
         <v>52.2</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="Z7" s="10">
         <v>0.1011</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AA7" s="10">
         <v>51.13</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="AB7" s="10">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="AC7" s="4">
+      <c r="AC7" s="10">
         <v>50.9</v>
       </c>
-      <c r="AD7" s="4">
+      <c r="AD7" s="10">
         <v>9.8500000000000004E-2</v>
       </c>
     </row>
-    <row r="8" spans="3:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="3">
+    <row r="8" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C8" s="15">
         <v>42965</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>28</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="10">
         <v>60</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="10">
         <v>0.11</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="10">
         <v>61.9</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="10">
         <v>0.113</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="10">
         <v>57.19</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="10">
         <v>0.10489999999999999</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="10">
         <v>69.61</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="10">
         <v>0.12759999999999999</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="10">
         <v>188.19</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="10">
         <v>0.34499999999999997</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="10">
         <v>224.9</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="10">
         <v>0.41199999999999998</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="10">
         <v>197.99</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="10">
         <v>0.36299999999999999</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="10">
         <v>56.1</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="10">
         <v>0.10299999999999999</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="10">
         <v>54.6</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="10">
         <v>0.1</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8" s="10">
         <v>51.17</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X8" s="10">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y8" s="10">
         <v>59.66</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="Z8" s="10">
         <v>0.109</v>
       </c>
-      <c r="AA8" s="4">
+      <c r="AA8" s="10">
         <v>64</v>
       </c>
-      <c r="AB8" s="4">
+      <c r="AB8" s="10">
         <v>0.11700000000000001</v>
       </c>
-      <c r="AC8" s="4">
+      <c r="AC8" s="10">
         <v>61.19</v>
       </c>
-      <c r="AD8" s="4">
+      <c r="AD8" s="10">
         <v>0.11</v>
       </c>
     </row>
-    <row r="9" spans="3:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="3">
+    <row r="9" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C9" s="15">
         <v>42968</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="M9" s="4">
+      <c r="M9" s="10">
         <v>196.5</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="10">
         <v>0.35820000000000002</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="10">
         <v>242.6</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="10">
         <v>0.442</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="10">
         <v>220.38</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="10">
         <v>0.40160000000000001</v>
       </c>
     </row>
-    <row r="10" spans="3:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="3">
+    <row r="10" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C10" s="15">
         <v>42972</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="G10" s="4">
+      <c r="G10" s="10">
         <v>26.57</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="10">
         <v>0.1017</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="10">
         <v>25.42</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="10">
         <v>9.7299999999999998E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="10">
         <v>29.27</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="10">
         <v>0.112</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="10">
         <v>92.56</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="10">
         <v>0.3543</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="10">
         <v>114.95</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="10">
         <v>0.44</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="10">
         <v>101.14</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="10">
         <v>0.3871</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="10">
         <v>22.18</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="10">
         <v>8.4900000000000003E-2</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10" s="10">
         <v>26.58</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10" s="10">
         <v>0.1018</v>
       </c>
-      <c r="W10" s="4">
+      <c r="W10" s="10">
         <v>21.35</v>
       </c>
-      <c r="X10" s="4">
+      <c r="X10" s="10">
         <v>8.1699999999999995E-2</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Y10" s="10">
         <v>33.479999999999997</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="Z10" s="10">
         <v>0.128</v>
       </c>
-      <c r="AA10" s="4">
+      <c r="AA10" s="10">
         <v>36.380000000000003</v>
       </c>
-      <c r="AB10" s="4">
+      <c r="AB10" s="10">
         <v>0.13919999999999999</v>
       </c>
-      <c r="AC10" s="4">
+      <c r="AC10" s="10">
         <v>27.87</v>
       </c>
-      <c r="AD10" s="4">
+      <c r="AD10" s="10">
         <v>0.1067</v>
       </c>
     </row>
     <row r="11" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C11" s="7">
+      <c r="C11" s="15">
         <v>42972</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>35</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="10">
         <v>96.39</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="10">
         <v>0.36890000000000001</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="10">
         <v>111.68859999999999</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="10">
         <v>0.42749999999999999</v>
       </c>
     </row>
-    <row r="12" spans="3:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="3">
+    <row r="12" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C12" s="15">
         <v>42979</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="4">
+      <c r="E12" s="10">
         <v>43.3</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="10">
         <v>0.1134</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="10">
         <v>47.68</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="10">
         <v>0.1172</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="10">
         <v>47.14</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="10">
         <v>0.1159</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="10">
         <v>50.39</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="10">
         <v>0.12379999999999999</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="10">
         <v>176.99</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="10">
         <v>0.43490000000000001</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="10">
         <v>223.78</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="10">
         <v>0.54990000000000006</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="10">
         <v>191</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="10">
         <v>0.46939999999999998</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12" s="10">
         <v>40.08</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="10">
         <v>9.8500000000000004E-2</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12" s="10">
         <v>48.32</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V12" s="10">
         <v>0.1188</v>
       </c>
-      <c r="W12" s="4">
+      <c r="W12" s="10">
         <v>40.69</v>
       </c>
-      <c r="X12" s="4">
+      <c r="X12" s="10">
         <v>0.1</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="Y12" s="10">
         <v>51.23</v>
       </c>
-      <c r="Z12" s="4">
+      <c r="Z12" s="10">
         <v>0.12590000000000001</v>
       </c>
-      <c r="AA12" s="4">
+      <c r="AA12" s="10">
         <v>50.36</v>
       </c>
-      <c r="AB12" s="4">
+      <c r="AB12" s="10">
         <v>0.12379999999999999</v>
       </c>
-      <c r="AC12" s="4">
+      <c r="AC12" s="10">
         <v>48.16</v>
       </c>
-      <c r="AD12" s="4">
+      <c r="AD12" s="10">
         <v>0.1183</v>
       </c>
     </row>
-    <row r="13" spans="3:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="3">
+    <row r="13" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C13" s="15">
         <v>42986</v>
       </c>
-      <c r="D13" s="12">
-        <f>C13-C4</f>
+      <c r="D13" s="11">
+        <f>C13-$C$4</f>
         <v>49</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="10">
         <v>56.3</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="10">
         <v>0.1308</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="10">
         <v>57.8</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="10">
         <v>0.13420000000000001</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="10">
         <v>55.03</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="10">
         <v>0.1278</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="10">
         <v>56.17</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="10">
         <v>0.13039999999999999</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="10">
         <v>212.02</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="10">
         <v>0.49220000000000003</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="10">
         <v>244.91</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="10">
         <v>0.56859999999999999</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="10">
         <v>217.14</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="10">
         <v>0.50409999999999999</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="10">
         <v>41</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="10">
         <v>9.5200000000000007E-2</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="10">
         <v>52.27</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="10">
         <v>0.12139999999999999</v>
       </c>
-      <c r="W13" s="4">
+      <c r="W13" s="10">
         <v>44.08</v>
       </c>
-      <c r="X13" s="4">
+      <c r="X13" s="10">
         <v>0.1023</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="Y13" s="10">
         <v>59.18</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="Z13" s="10">
         <v>0.13700000000000001</v>
       </c>
-      <c r="AA13" s="4">
+      <c r="AA13" s="10">
         <v>58.5</v>
       </c>
-      <c r="AB13" s="4">
+      <c r="AB13" s="10">
         <v>0.13589999999999999</v>
       </c>
-      <c r="AC13" s="4">
+      <c r="AC13" s="10">
         <v>57.07</v>
       </c>
-      <c r="AD13" s="4">
+      <c r="AD13" s="10">
         <v>0.13250000000000001</v>
       </c>
     </row>
-    <row r="14" spans="3:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="2">
+    <row r="14" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C14" s="15">
         <v>43000</v>
       </c>
-      <c r="D14" s="10">
-        <f>C14-C4</f>
+      <c r="D14" s="11">
+        <f t="shared" ref="D14:D15" si="0">C14-$C$4</f>
         <v>63</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="10">
         <v>57.93</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="10">
         <v>0.126</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="10">
         <v>63.4</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="10">
         <v>0.13800000000000001</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="10">
         <v>54.75</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="10">
         <v>0.11899999999999999</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="10">
         <v>58.17</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="10">
         <v>0.12709999999999999</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="10">
         <v>259.39</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="10">
         <v>0.56000000000000005</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="10">
         <v>313.5</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="10">
         <v>0.68</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="10">
         <v>260.92</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="10">
         <v>0.56999999999999995</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="10">
         <v>48.33</v>
       </c>
-      <c r="T14" s="1">
+      <c r="T14" s="10">
         <v>0.1</v>
       </c>
-      <c r="U14" s="1">
+      <c r="U14" s="10">
         <v>57.14</v>
       </c>
-      <c r="V14" s="1">
+      <c r="V14" s="10">
         <v>0.12479999999999999</v>
       </c>
-      <c r="W14" s="1">
+      <c r="W14" s="10">
         <v>49.3</v>
       </c>
-      <c r="X14" s="1">
+      <c r="X14" s="10">
         <v>0.1</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Y14" s="10">
         <v>65.89</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="Z14" s="10">
         <v>0.14399999999999999</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AA14" s="10">
         <v>68.7</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AB14" s="10">
         <v>0.15</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AC14" s="10">
         <v>61.36</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AD14" s="10">
         <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="3:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="19">
+        <v>43014</v>
+      </c>
+      <c r="D15" s="14">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="E15" s="13">
+        <v>47.2</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.13689999999999999</v>
+      </c>
+      <c r="G15" s="13">
+        <v>55.69</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.1615</v>
+      </c>
+      <c r="I15" s="13">
+        <v>43.9</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="M15" s="13">
+        <v>249.47</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="O15" s="13">
+        <v>300.7</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0.87</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>256.57</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0.74</v>
+      </c>
+      <c r="S15" s="13">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0.11</v>
+      </c>
+      <c r="U15" s="13">
+        <v>51.5</v>
+      </c>
+      <c r="V15" s="13">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="Y15" s="13">
+        <v>57.59</v>
+      </c>
+      <c r="Z15" s="13">
+        <v>0.16</v>
+      </c>
+      <c r="AA15" s="13">
+        <v>60.1</v>
+      </c>
+      <c r="AB15" s="13">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AD2"/>
@@ -2074,6 +2230,11 @@
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
